--- a/IPC2024_base2010/sinrecodificar_1_2024.xlsx
+++ b/IPC2024_base2010/sinrecodificar_1_2024.xlsx
@@ -1129,7 +1129,7 @@
     <t>Pantalones largos deportivo para hombres (mayores a 12 años)</t>
   </si>
   <si>
-    <t>Pupusas y tuyuyos</t>
+    <t>Pupusas y Tayuyos</t>
   </si>
   <si>
     <t>Tablet de 8" a 11", 32 GB - 64GB, Wifi</t>

--- a/IPC2024_base2010/sinrecodificar_1_2024.xlsx
+++ b/IPC2024_base2010/sinrecodificar_1_2024.xlsx
@@ -1219,7 +1219,7 @@
     <t>Macetas con hierbas de cocina</t>
   </si>
   <si>
-    <t>Compa de aves</t>
+    <t>Compra de aves</t>
   </si>
   <si>
     <t>Compra de peces</t>
